--- a/source_analyses/pl/2012/6_residences/6_residences_source_analysis.xlsx
+++ b/source_analyses/pl/2012/6_residences/6_residences_source_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16160" tabRatio="835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="835"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -12,14 +12,17 @@
     <sheet name="Space heating" sheetId="82" r:id="rId3"/>
     <sheet name="Hot water" sheetId="83" r:id="rId4"/>
     <sheet name="Cooking" sheetId="84" r:id="rId5"/>
-    <sheet name="Old and new houses" sheetId="76" r:id="rId6"/>
+    <sheet name="Lighting" sheetId="85" r:id="rId6"/>
+    <sheet name="Old and new houses" sheetId="76" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="base_year" localSheetId="4">#REF!</definedName>
+    <definedName name="base_year" localSheetId="5">#REF!</definedName>
     <definedName name="base_year">#REF!</definedName>
+    <definedName name="country" localSheetId="5">#REF!</definedName>
     <definedName name="country">#REF!</definedName>
     <definedName name="Final_demand_residences">'[1]Fuel aggregation'!$L$11</definedName>
     <definedName name="GWh_to_TJ">#REF!</definedName>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="165">
   <si>
     <t>Document</t>
   </si>
@@ -345,9 +348,6 @@
     <t>References</t>
   </si>
   <si>
-    <t>[1] GUS (2013) Energy efficiency in Poland 2001-2011, p. 23, table 3: 'Structure of energy consumption in households by end use (%)'</t>
-  </si>
-  <si>
     <t>Final demand (TJ)</t>
   </si>
   <si>
@@ -369,9 +369,6 @@
     <t>Table 1: Percentage of houses by year [1]</t>
   </si>
   <si>
-    <t>[1] GUS (2014) Energy consumption in households in 2012, table 3B: 'Dwellings by construction period'</t>
-  </si>
-  <si>
     <t>ETM carrier</t>
   </si>
   <si>
@@ -450,16 +447,94 @@
     <t>Table 3: Use of cooking equipment in households [1]</t>
   </si>
   <si>
-    <t>[1] GUS (2014) Energy consumption in households in 2012, p. 100, table 9: Use of cooking equipment in households</t>
-  </si>
-  <si>
     <t>Percentage of households</t>
   </si>
   <si>
     <t>Table 1: Households using various energy commodities [1]</t>
   </si>
   <si>
-    <t>[1] GUS (2014) Energy consumption in households in 2012, table 5: 'Households using various energy commodities, with the specification of the purpose of use'</t>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Types of lamps</t>
+  </si>
+  <si>
+    <t>Households with this type of lamps</t>
+  </si>
+  <si>
+    <t>Average total power</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Power per lamp</t>
+  </si>
+  <si>
+    <t>Normalized power consumption</t>
+  </si>
+  <si>
+    <t>All lamps</t>
+  </si>
+  <si>
+    <t>Incandescant bulbs</t>
+  </si>
+  <si>
+    <t>Compact fluorescent lamps</t>
+  </si>
+  <si>
+    <t>Other lamps</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Compact fluorescent</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Calculated share</t>
+  </si>
+  <si>
+    <t>Average normalized power consumption</t>
+  </si>
+  <si>
+    <t>Not used in PL 2012 dataset yet!</t>
+  </si>
+  <si>
+    <t>Table 1: Use of lighting equipment in households [1]</t>
+  </si>
+  <si>
+    <t>Average number of lamps for households with this type of lamp</t>
+  </si>
+  <si>
+    <t>Average number of lamps per household</t>
+  </si>
+  <si>
+    <t>Table 2: Technology specifications of lamps in the ETM (only for informative purposes)</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>Note: The efficency ratio between the consumption of incandescants lamps and compact fluorescent lamps in the ETM is much higher compared to the ration in the GUS (2014) data. The normalized power consumption for all lamps is 0.64 according to GUS (2014) and 0.70 according to the ETM using the shares calculated in this analysis.</t>
+  </si>
+  <si>
+    <t>[1] GUS_201403_Energy consumption in households in 2012, table 5: 'Households using various energy commodities, with the specification of the purpose of use' (http://refman.et-model.com/publications/1870)</t>
+  </si>
+  <si>
+    <t>[1] GUS_201403_Energy consumption in households in 2012, p. 100, table 9: Use of cooking equipment in households (http://refman.et-model.com/publications/1870)</t>
+  </si>
+  <si>
+    <t>[1] GUS_201403_Energy consumption in households in 2012, Table 13: 'Use of lighting equipment in households' (http://refman.et-model.com/publications/1870)</t>
+  </si>
+  <si>
+    <t>[1] GUS_201403_Energy consumption in households in 2012, table 3B: 'Dwellings by construction period' (http://refman.et-model.com/publications/1870)</t>
+  </si>
+  <si>
+    <t>[1] GUS_201307_Energy efficiency in Poland 2001-2011, p. 23, table 3: 'Structure of energy consumption in households by end use (%)' (http://refman.et-model.com/publications/1872)</t>
   </si>
 </sst>
 </file>
@@ -472,7 +547,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -575,6 +650,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -777,7 +859,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1651">
+  <cellStyleXfs count="1661">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2431,8 +2513,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2599,8 +2691,56 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1651">
+  <cellStyles count="1661">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3425,6 +3565,11 @@
     <cellStyle name="Followed Hyperlink" xfId="1646" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1648" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1660" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4247,6 +4392,11 @@
     <cellStyle name="Hyperlink" xfId="1645" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1647" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1659" builtinId="8" hidden="1"/>
     <cellStyle name="Input cel" xfId="1352"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1353"/>
@@ -4698,13 +4848,11 @@
   </sheetPr>
   <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
@@ -4951,7 +5099,7 @@
   <dimension ref="B2:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5032,7 +5180,7 @@
     </row>
     <row r="15" spans="2:3" ht="30">
       <c r="B15" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="48">
         <v>820410</v>
@@ -5044,7 +5192,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -5052,7 +5200,7 @@
         <v>97</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -5115,7 +5263,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5133,9 +5281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -5148,7 +5294,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="20">
       <c r="B2" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -5156,7 +5302,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30">
@@ -5176,7 +5322,7 @@
         <v>73</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -5396,7 +5542,7 @@
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="H17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -5416,7 +5562,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -5436,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -5481,7 +5627,7 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:8" s="65" customFormat="1" ht="45">
@@ -5489,13 +5635,13 @@
         <v>97</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -5598,18 +5744,18 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:6" s="65" customFormat="1" ht="45">
       <c r="B35" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="59" t="s">
         <v>113</v>
-      </c>
-      <c r="C35" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="59" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -5650,7 +5796,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C39" s="34">
         <v>116827.55</v>
@@ -5698,12 +5844,12 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="30">
       <c r="B46" s="62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C46" s="59" t="s">
         <v>70</v>
@@ -5752,7 +5898,7 @@
         <v>9.7700000000000009E-2</v>
       </c>
       <c r="E48" s="43">
-        <f t="shared" ref="D48:F48" si="0">SUM(E10:E11)</f>
+        <f t="shared" ref="E48:F48" si="0">SUM(E10:E11)</f>
         <v>0.27310000000000001</v>
       </c>
       <c r="F48" s="43">
@@ -5783,7 +5929,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C50" s="43">
         <f>SUM(C17:C19)</f>
@@ -5881,12 +6027,12 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="30">
       <c r="B57" s="62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="59" t="s">
@@ -5955,7 +6101,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="43">
@@ -6034,12 +6180,12 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="30">
       <c r="B67" s="62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="59" t="s">
@@ -6108,7 +6254,7 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C71" s="43"/>
       <c r="D71" s="43">
@@ -6187,12 +6333,12 @@
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="30">
       <c r="B77" s="62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C77" s="59"/>
       <c r="D77" s="59" t="s">
@@ -6261,7 +6407,7 @@
     </row>
     <row r="81" spans="2:6">
       <c r="B81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C81" s="43"/>
       <c r="D81" s="34">
@@ -6350,29 +6496,29 @@
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="2:6" s="65" customFormat="1" ht="30">
       <c r="B89" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89" s="59" t="s">
-        <v>130</v>
-      </c>
       <c r="E89" s="72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F89" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C90" s="74" t="s">
         <v>33</v>
@@ -6391,7 +6537,7 @@
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C91" s="74">
         <f>D82</f>
@@ -6411,7 +6557,7 @@
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C92" s="74" t="s">
         <v>33</v>
@@ -6430,7 +6576,7 @@
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C93" s="74" t="s">
         <v>33</v>
@@ -6469,7 +6615,7 @@
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C95" s="74" t="s">
         <v>33</v>
@@ -6488,7 +6634,7 @@
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C96" s="74">
         <f>D81</f>
@@ -6588,7 +6734,7 @@
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C101" s="74" t="s">
         <v>33</v>
@@ -6630,7 +6776,7 @@
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="31" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6650,11 +6796,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F30"/>
+  <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -6664,444 +6808,448 @@
   <sheetData>
     <row r="2" spans="2:6" ht="20">
       <c r="B2" s="40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="30">
-      <c r="B5" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15" customHeight="1">
+      <c r="B3" s="40"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30">
+      <c r="B6" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E6" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F6" s="59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="34">
+      <c r="C7" s="43"/>
+      <c r="D7" s="34">
         <f>'Space heating'!D78</f>
         <v>216551.77994602092</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E7" s="34">
         <f>'Space heating'!E78</f>
         <v>32307.078596868891</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F7" s="34">
         <f>'Space heating'!F78</f>
         <v>3802.5014571101901</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="34">
+      <c r="C8" s="43"/>
+      <c r="D8" s="34">
         <f>'Space heating'!D79</f>
         <v>63138.510293343119</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E8" s="34">
         <f>'Space heating'!E79</f>
         <v>37965.991345191978</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F8" s="34">
         <f>'Space heating'!F79</f>
         <v>40252.3783614649</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="34">
+      <c r="C9" s="43"/>
+      <c r="D9" s="34">
         <f>'Space heating'!D80</f>
         <v>3509.6752773305607</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E9" s="34">
         <f>'Space heating'!E80</f>
         <v>1921.7883653881934</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F9" s="34">
         <f>'Space heating'!F80</f>
         <v>21274.756357281243</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="34">
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="34">
         <f>'Space heating'!D81</f>
         <v>101147.29231168579</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E10" s="34">
         <f>'Space heating'!E81</f>
         <v>13474.414266584838</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F10" s="34">
         <f>'Space heating'!F81</f>
         <v>2205.8434217293748</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="34">
+      <c r="C11" s="43"/>
+      <c r="D11" s="34">
         <f>'Space heating'!D82</f>
         <v>168.10424108783536</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E11" s="34">
         <f>'Space heating'!E82</f>
         <v>211.80575891216463</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F11" s="34">
         <f>'Space heating'!F82</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="34">
+      <c r="C12" s="43"/>
+      <c r="D12" s="34">
         <f>'Space heating'!D83</f>
         <v>10324.254857488977</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E12" s="34">
         <f>'Space heating'!E83</f>
         <v>9702.1095685423188</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F12" s="34">
         <f>'Space heating'!F83</f>
         <v>15483.575573968701</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="52" t="s">
+    <row r="13" spans="2:6">
+      <c r="B13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="39">
+      <c r="C13" s="56"/>
+      <c r="D13" s="39">
         <f>'Space heating'!D84</f>
         <v>157996.94268981475</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E13" s="39">
         <f>'Space heating'!E84</f>
         <v>21968.46731018526</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F13" s="39">
         <f>'Space heating'!F84</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="54" t="s">
+    <row r="14" spans="2:6">
+      <c r="B14" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="34">
-        <f>SUM(D6:D12)</f>
+      <c r="C14" s="42"/>
+      <c r="D14" s="71">
+        <f>SUM(D7:D13)</f>
         <v>552836.55961677199</v>
       </c>
-      <c r="E13" s="34">
-        <f t="shared" ref="E13:F13" si="0">SUM(E6:E12)</f>
+      <c r="E14" s="71">
+        <f t="shared" ref="E14:F14" si="0">SUM(E7:E13)</f>
         <v>117551.65521167364</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F14" s="71">
         <f t="shared" si="0"/>
         <v>83019.055171554413</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="45">
-      <c r="B17" s="59" t="s">
+    <row r="17" spans="2:6">
+      <c r="B17" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="45">
+      <c r="B18" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="70">
-        <v>0.9</v>
-      </c>
-      <c r="E18" s="34" t="str">
-        <f>IF(ISNUMBER(C18),C18*D18,"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="57" t="str">
-        <f>IF(ISNUMBER(E18),E18/E$30,"")</f>
-        <v/>
+      <c r="E18" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="74">
-        <f>E10</f>
-        <v>211.80575891216463</v>
+        <v>119</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>33</v>
       </c>
       <c r="D19" s="70">
-        <v>1</v>
-      </c>
-      <c r="E19" s="34">
-        <f t="shared" ref="E19:E29" si="1">IF(ISNUMBER(C19),C19*D19,"")</f>
-        <v>211.80575891216463</v>
-      </c>
-      <c r="F19" s="57">
-        <f>IF(ISNUMBER(E19),E19/E$30,"")</f>
-        <v>2.2210546904998995E-3</v>
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="34" t="str">
+        <f>IF(ISNUMBER(C19),C19*D19,"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="57" t="str">
+        <f>IF(ISNUMBER(E19),E19/E$31,"")</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>33</v>
+        <v>120</v>
+      </c>
+      <c r="C20" s="74">
+        <f>E11</f>
+        <v>211.80575891216463</v>
       </c>
       <c r="D20" s="70">
-        <v>3.0000000000000031</v>
-      </c>
-      <c r="E20" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F20" s="57" t="str">
-        <f t="shared" ref="F20:F29" si="2">IF(ISNUMBER(E20),E20/E$30,"")</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="34">
+        <f t="shared" ref="E20:E30" si="1">IF(ISNUMBER(C20),C20*D20,"")</f>
+        <v>211.80575891216463</v>
+      </c>
+      <c r="F20" s="57">
+        <f>IF(ISNUMBER(E20),E20/E$31,"")</f>
+        <v>2.2210546904998995E-3</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="68" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C21" s="74" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="70">
-        <v>0.88</v>
+        <v>3.0000000000000031</v>
       </c>
       <c r="E21" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F21" s="57" t="str">
+        <f t="shared" ref="F21:F30" si="2">IF(ISNUMBER(E21),E21/E$31,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="70">
+        <v>0.88</v>
+      </c>
+      <c r="E22" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" s="57" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="68" t="s">
+    <row r="23" spans="2:6">
+      <c r="B23" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="74">
-        <f>E12</f>
+      <c r="C23" s="74">
+        <f>E13</f>
         <v>21968.46731018526</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D23" s="70">
         <v>1</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E23" s="34">
         <f t="shared" si="1"/>
         <v>21968.46731018526</v>
       </c>
-      <c r="F22" s="57">
+      <c r="F23" s="57">
         <f t="shared" si="2"/>
         <v>0.23036751981146603</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="74" t="s">
+    <row r="24" spans="2:6">
+      <c r="B24" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D24" s="70">
         <v>3.0000000000000031</v>
       </c>
-      <c r="E23" s="34" t="str">
+      <c r="E24" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F23" s="57" t="str">
+      <c r="F24" s="57" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="74">
-        <f>E9</f>
+    <row r="25" spans="2:6">
+      <c r="B25" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="74">
+        <f>E10</f>
         <v>13474.414266584838</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D25" s="70">
         <v>0.82</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E25" s="34">
         <f t="shared" si="1"/>
         <v>11049.019698599566</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F25" s="57">
         <f t="shared" si="2"/>
         <v>0.1158631245582762</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="68" t="s">
+    <row r="26" spans="2:6">
+      <c r="B26" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="74">
-        <f>E11</f>
+      <c r="C26" s="74">
+        <f>E12</f>
         <v>9702.1095685423188</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D26" s="70">
         <v>0.95</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E26" s="34">
         <f t="shared" si="1"/>
         <v>9217.0040901152024</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F26" s="57">
         <f t="shared" si="2"/>
         <v>9.6652094219952731E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="68" t="s">
+    <row r="27" spans="2:6">
+      <c r="B27" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="74">
-        <f>E7</f>
+      <c r="C27" s="74">
+        <f>E8</f>
         <v>37965.991345191978</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D27" s="70">
         <v>0.67</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E27" s="34">
         <f t="shared" si="1"/>
         <v>25437.214201278628</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F27" s="57">
         <f t="shared" si="2"/>
         <v>0.2667417741857997</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="68" t="s">
+    <row r="28" spans="2:6">
+      <c r="B28" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="74">
-        <f>E8</f>
+      <c r="C28" s="74">
+        <f>E9</f>
         <v>1921.7883653881934</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D28" s="70">
         <v>0.85</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E28" s="34">
         <f t="shared" si="1"/>
         <v>1633.5201105799642</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F28" s="57">
         <f t="shared" si="2"/>
         <v>1.7129550783999806E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="68" t="s">
+    <row r="29" spans="2:6">
+      <c r="B29" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="74">
-        <f>E6</f>
+      <c r="C29" s="74">
+        <f>E7</f>
         <v>32307.078596868891</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D29" s="70">
         <v>0.8</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E29" s="34">
         <f t="shared" si="1"/>
         <v>25845.662877495113</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F29" s="57">
         <f t="shared" si="2"/>
         <v>0.27102488175000577</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="74" t="s">
+    <row r="30" spans="2:6">
+      <c r="B30" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D30" s="70">
         <v>0.2</v>
       </c>
-      <c r="E29" s="34" t="str">
+      <c r="E30" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F29" s="57" t="str">
+      <c r="F30" s="57" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="69" t="s">
+    <row r="31" spans="2:6">
+      <c r="B31" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="71">
-        <f>SUM(C18:C29)</f>
+      <c r="C31" s="71">
+        <f>SUM(C19:C30)</f>
         <v>117551.65521167364</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="71">
-        <f>SUM(E18:E29)</f>
+      <c r="D31" s="42"/>
+      <c r="E31" s="71">
+        <f>SUM(E19:E30)</f>
         <v>95362.694047165889</v>
       </c>
-      <c r="F30" s="44">
-        <f>SUM(F18:F29)</f>
+      <c r="F31" s="44">
+        <f>SUM(F19:F30)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -7117,11 +7265,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R60"/>
+  <dimension ref="B2:R61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -7135,454 +7281,440 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="30">
-      <c r="B5" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5" s="67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30">
+      <c r="B6" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E6" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F6" s="59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="48">
+      <c r="C7" s="77"/>
+      <c r="D7" s="48">
         <f>'Space heating'!D78</f>
         <v>216551.77994602092</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E7" s="48">
         <f>'Space heating'!E78</f>
         <v>32307.078596868891</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F7" s="48">
         <f>'Space heating'!F78</f>
         <v>3802.5014571101901</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="48">
+      <c r="C8" s="77"/>
+      <c r="D8" s="48">
         <f>'Space heating'!D79</f>
         <v>63138.510293343119</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E8" s="48">
         <f>'Space heating'!E79</f>
         <v>37965.991345191978</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F8" s="48">
         <f>'Space heating'!F79</f>
         <v>40252.3783614649</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="48">
+      <c r="C9" s="77"/>
+      <c r="D9" s="48">
         <f>'Space heating'!D80</f>
         <v>3509.6752773305607</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E9" s="48">
         <f>'Space heating'!E80</f>
         <v>1921.7883653881934</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F9" s="48">
         <f>'Space heating'!F80</f>
         <v>21274.756357281243</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="48">
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="48">
         <f>'Space heating'!D81</f>
         <v>101147.29231168579</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E10" s="48">
         <f>'Space heating'!E81</f>
         <v>13474.414266584838</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F10" s="48">
         <f>'Space heating'!F81</f>
         <v>2205.8434217293748</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="48">
+      <c r="C11" s="77"/>
+      <c r="D11" s="48">
         <f>'Space heating'!D82</f>
         <v>168.10424108783536</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E11" s="48">
         <f>'Space heating'!E82</f>
         <v>211.80575891216463</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F11" s="48">
         <f>'Space heating'!F82</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="48">
+      <c r="C12" s="77"/>
+      <c r="D12" s="48">
         <f>'Space heating'!D83</f>
         <v>10324.254857488977</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E12" s="48">
         <f>'Space heating'!E83</f>
         <v>9702.1095685423188</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F12" s="48">
         <f>'Space heating'!F83</f>
         <v>15483.575573968701</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="52" t="s">
+    <row r="13" spans="2:6">
+      <c r="B13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79">
+      <c r="C13" s="78"/>
+      <c r="D13" s="79">
         <f>'Space heating'!D84</f>
         <v>157996.94268981475</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E13" s="79">
         <f>'Space heating'!E84</f>
         <v>21968.46731018526</v>
       </c>
-      <c r="F12" s="79">
+      <c r="F13" s="79">
         <f>'Space heating'!F84</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="54" t="s">
+    <row r="14" spans="2:6">
+      <c r="B14" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="48">
-        <f>SUM(D6:D12)</f>
+      <c r="C14" s="69"/>
+      <c r="D14" s="83">
+        <f>SUM(D7:D13)</f>
         <v>552836.55961677199</v>
       </c>
-      <c r="E13" s="48">
-        <f t="shared" ref="E13:F13" si="0">SUM(E6:E12)</f>
+      <c r="E14" s="83">
+        <f t="shared" ref="E14:F14" si="0">SUM(E7:E13)</f>
         <v>117551.65521167364</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F14" s="83">
         <f t="shared" si="0"/>
         <v>83019.055171554413</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="30">
-      <c r="B17" s="59" t="s">
+    <row r="17" spans="2:18">
+      <c r="B17" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="30">
+      <c r="B18" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="28"/>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="80">
-        <f>F7+F8</f>
-        <v>61527.134718746143</v>
-      </c>
-      <c r="D18" s="81">
-        <v>0.4</v>
-      </c>
-      <c r="E18" s="48">
-        <f>IF(ISNUMBER(C18),C18*D18,"")</f>
-        <v>24610.853887498459</v>
-      </c>
-      <c r="F18" s="82">
-        <f>IF(ISNUMBER(E18),E18/E$23,"")</f>
-        <v>0.7045900443448897</v>
-      </c>
+      <c r="E18" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="80">
-        <f>F11</f>
-        <v>15483.575573968701</v>
+        <f>F8+F9</f>
+        <v>61527.134718746143</v>
       </c>
       <c r="D19" s="81">
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="E19" s="48">
-        <f t="shared" ref="E19:E22" si="1">IF(ISNUMBER(C19),C19*D19,"")</f>
-        <v>8515.9665656827856</v>
+        <f>IF(ISNUMBER(C19),C19*D19,"")</f>
+        <v>24610.853887498459</v>
       </c>
       <c r="F19" s="82">
-        <f>IF(ISNUMBER(E19),E19/E$23,"")</f>
-        <v>0.2438056512619409</v>
+        <f>IF(ISNUMBER(E19),E19/E$24,"")</f>
+        <v>0.7045900443448897</v>
       </c>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="C20" s="80">
+        <f>F12</f>
+        <v>15483.575573968701</v>
       </c>
       <c r="D20" s="81">
-        <v>0.6</v>
-      </c>
-      <c r="E20" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F20" s="82" t="str">
-        <f>IF(ISNUMBER(E20),E20/E$23,"")</f>
-        <v/>
-      </c>
-      <c r="O20" s="28"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E20" s="48">
+        <f t="shared" ref="E20:E23" si="1">IF(ISNUMBER(C20),C20*D20,"")</f>
+        <v>8515.9665656827856</v>
+      </c>
+      <c r="F20" s="82">
+        <f>IF(ISNUMBER(E20),E20/E$24,"")</f>
+        <v>0.2438056512619409</v>
+      </c>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="80" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="81">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="E21" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F21" s="82" t="str">
-        <f>IF(ISNUMBER(E21),E21/E$23,"")</f>
+        <f>IF(ISNUMBER(E21),E21/E$24,"")</f>
         <v/>
       </c>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="81">
+        <v>0.85</v>
+      </c>
+      <c r="E22" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" s="82" t="str">
+        <f>IF(ISNUMBER(E22),E22/E$24,"")</f>
+        <v/>
+      </c>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="80">
-        <f>F6+F9</f>
+      <c r="C23" s="80">
+        <f>F7+F10</f>
         <v>6008.3448788395654</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D23" s="81">
         <v>0.3</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E23" s="48">
         <f t="shared" si="1"/>
         <v>1802.5034636518697</v>
       </c>
-      <c r="F22" s="82">
-        <f>IF(ISNUMBER(E22),E22/E$23,"")</f>
+      <c r="F23" s="82">
+        <f>IF(ISNUMBER(E23),E23/E$24,"")</f>
         <v>5.1604304393169445E-2</v>
       </c>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-    </row>
-    <row r="23" spans="2:18">
-      <c r="B23" s="69" t="s">
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="83">
-        <f>SUM(C18:C22)</f>
+      <c r="C24" s="83">
+        <f>SUM(C19:C23)</f>
         <v>83019.055171554413</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="83">
-        <f>SUM(E18:E22)</f>
+      <c r="D24" s="69"/>
+      <c r="E24" s="83">
+        <f>SUM(E19:E23)</f>
         <v>34929.323916833113</v>
       </c>
-      <c r="F23" s="84">
-        <f>SUM(F18:F22)</f>
+      <c r="F24" s="84">
+        <f>SUM(F19:F23)</f>
         <v>1</v>
       </c>
-      <c r="O23" s="28"/>
-    </row>
-    <row r="24" spans="2:18">
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
+      <c r="O24" s="28"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="O25" s="31"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="28" t="s">
-        <v>136</v>
-      </c>
       <c r="O26" s="31"/>
     </row>
-    <row r="27" spans="2:18" s="64" customFormat="1" ht="30">
-      <c r="B27" s="76" t="s">
+    <row r="27" spans="2:18">
+      <c r="B27" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="O27" s="31"/>
+    </row>
+    <row r="28" spans="2:18" s="64" customFormat="1" ht="30">
+      <c r="B28" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C28" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="O27" s="45"/>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="B28" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="86">
-        <v>7.25</v>
-      </c>
-      <c r="O28" s="31"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="O28" s="45"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="86">
-        <v>7.19</v>
+        <v>7.25</v>
       </c>
       <c r="O29" s="31"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="86">
-        <v>3.81</v>
+        <v>7.19</v>
       </c>
       <c r="O30" s="31"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="86">
-        <v>52.79</v>
+        <v>3.81</v>
       </c>
       <c r="O31" s="31"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="86">
-        <v>37.76</v>
+        <v>52.79</v>
       </c>
       <c r="O32" s="31"/>
     </row>
     <row r="33" spans="2:17">
       <c r="B33" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="86">
+        <v>37.76</v>
+      </c>
+      <c r="O33" s="31"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="86">
+      <c r="C34" s="86">
         <v>8.93</v>
       </c>
     </row>
-    <row r="34" spans="2:17">
-      <c r="B34" s="75" t="s">
+    <row r="35" spans="2:17">
+      <c r="B35" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="87">
+      <c r="C35" s="87">
         <v>53.83</v>
       </c>
-      <c r="Q34" s="33"/>
-    </row>
-    <row r="35" spans="2:17">
       <c r="Q35" s="33"/>
     </row>
     <row r="36" spans="2:17">
       <c r="Q36" s="33"/>
     </row>
     <row r="37" spans="2:17">
-      <c r="B37" s="28" t="s">
-        <v>116</v>
-      </c>
+      <c r="Q37" s="33"/>
     </row>
     <row r="38" spans="2:17">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="C39" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="62" t="s">
+      <c r="D39" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="62" t="s">
+      <c r="E39" s="62" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17">
-      <c r="B39" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="68">
-        <f>C28</f>
-        <v>7.25</v>
-      </c>
-      <c r="D39" s="68">
-        <f>C28</f>
-        <v>7.25</v>
-      </c>
-      <c r="E39" s="68" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="40" spans="2:17">
       <c r="B40" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="68" t="s">
-        <v>33</v>
+        <v>77</v>
+      </c>
+      <c r="C40" s="68">
+        <f>C29</f>
+        <v>7.25</v>
       </c>
       <c r="D40" s="68">
         <f>C29</f>
-        <v>7.19</v>
+        <v>7.25</v>
       </c>
       <c r="E40" s="68" t="s">
         <v>33</v>
@@ -7590,14 +7722,14 @@
     </row>
     <row r="41" spans="2:17">
       <c r="B41" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="68">
+        <v>78</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="68">
         <f>C30</f>
-        <v>3.81</v>
-      </c>
-      <c r="D41" s="68" t="s">
-        <v>33</v>
+        <v>7.19</v>
       </c>
       <c r="E41" s="68" t="s">
         <v>33</v>
@@ -7605,15 +7737,14 @@
     </row>
     <row r="42" spans="2:17">
       <c r="B42" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="68">
         <f>C31</f>
-        <v>52.79</v>
-      </c>
-      <c r="D42" s="68">
-        <f>C31</f>
-        <v>52.79</v>
+        <v>3.81</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>33</v>
       </c>
       <c r="E42" s="68" t="s">
         <v>33</v>
@@ -7621,14 +7752,15 @@
     </row>
     <row r="43" spans="2:17">
       <c r="B43" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="68">
         <f>C32</f>
-        <v>37.76</v>
-      </c>
-      <c r="D43" s="68" t="s">
-        <v>33</v>
+        <v>52.79</v>
+      </c>
+      <c r="D43" s="68">
+        <f>C32</f>
+        <v>52.79</v>
       </c>
       <c r="E43" s="68" t="s">
         <v>33</v>
@@ -7636,11 +7768,11 @@
     </row>
     <row r="44" spans="2:17">
       <c r="B44" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="68">
         <f>C33</f>
-        <v>8.93</v>
+        <v>37.76</v>
       </c>
       <c r="D44" s="68" t="s">
         <v>33</v>
@@ -7651,95 +7783,98 @@
     </row>
     <row r="45" spans="2:17">
       <c r="B45" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="68" t="s">
-        <v>33</v>
+        <v>82</v>
+      </c>
+      <c r="C45" s="68">
+        <f>C34</f>
+        <v>8.93</v>
       </c>
       <c r="D45" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="68">
-        <f>C34</f>
+      <c r="E45" s="68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="68">
+        <f>C35</f>
         <v>53.83</v>
       </c>
     </row>
-    <row r="46" spans="2:17">
-      <c r="B46" s="46" t="s">
+    <row r="47" spans="2:17">
+      <c r="B47" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="69">
-        <f>SUM(C39:C45)</f>
+      <c r="C47" s="69">
+        <f>SUM(C40:C46)</f>
         <v>110.53999999999999</v>
       </c>
-      <c r="D46" s="69">
-        <f>SUM(D39:D45)</f>
+      <c r="D47" s="69">
+        <f>SUM(D40:D46)</f>
         <v>67.23</v>
       </c>
-      <c r="E46" s="69">
-        <f>SUM(E39:E45)</f>
+      <c r="E47" s="69">
+        <f>SUM(E40:E46)</f>
         <v>53.83</v>
       </c>
     </row>
-    <row r="49" spans="2:17">
-      <c r="B49" s="28" t="s">
+    <row r="50" spans="2:17">
+      <c r="B50" s="28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:17" s="64" customFormat="1" ht="30">
-      <c r="B50" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-    </row>
-    <row r="51" spans="2:17">
-      <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="68">
-        <f>MAX(C42:D42)+C43</f>
-        <v>90.55</v>
-      </c>
-      <c r="D51" s="88">
-        <f>IF(ISNUMBER(C51),C51/SUM($C$51:$C$55),"")</f>
-        <v>0.76913276140321074</v>
-      </c>
+    <row r="51" spans="2:17" s="64" customFormat="1" ht="30">
+      <c r="B51" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" s="68">
-        <f>MAX(C39:D39)+D40+C41</f>
-        <v>18.25</v>
+        <f>MAX(C43:D43)+C44</f>
+        <v>90.55</v>
       </c>
       <c r="D52" s="88">
-        <f t="shared" ref="D52:D55" si="2">IF(ISNUMBER(C52),C52/SUM($C$51:$C$55),"")</f>
-        <v>0.15501571392168523</v>
+        <f>IF(ISNUMBER(C52),C52/SUM($C$52:$C$56),"")</f>
+        <v>0.76913276140321074</v>
       </c>
     </row>
     <row r="53" spans="2:17">
       <c r="B53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>87</v>
+      </c>
+      <c r="C53" s="68">
+        <f>MAX(C40:D40)+D41+C42</f>
+        <v>18.25</v>
+      </c>
+      <c r="D53" s="88">
+        <f t="shared" ref="D53:D56" si="2">IF(ISNUMBER(C53),C53/SUM($C$52:$C$56),"")</f>
+        <v>0.15501571392168523</v>
       </c>
     </row>
     <row r="54" spans="2:17">
       <c r="B54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" s="68" t="s">
         <v>33</v>
@@ -7751,39 +7886,51 @@
     </row>
     <row r="55" spans="2:17">
       <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="68">
-        <f>C44</f>
+      <c r="C56" s="68">
+        <f>C45</f>
         <v>8.93</v>
       </c>
-      <c r="D55" s="88">
+      <c r="D56" s="88">
         <f t="shared" si="2"/>
         <v>7.5851524675104059E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:17">
-      <c r="B56" s="42" t="s">
+    <row r="57" spans="2:17">
+      <c r="B57" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="89">
-        <f>SUM(D51:D55)</f>
+      <c r="C57" s="69"/>
+      <c r="D57" s="89">
+        <f>SUM(D52:D56)</f>
         <v>1</v>
       </c>
-      <c r="Q56" s="33"/>
-    </row>
-    <row r="57" spans="2:17">
       <c r="Q57" s="33"/>
     </row>
-    <row r="59" spans="2:17">
-      <c r="B59" s="28" t="s">
+    <row r="58" spans="2:17">
+      <c r="Q58" s="33"/>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="2:17">
-      <c r="B60" t="s">
-        <v>137</v>
+    <row r="61" spans="2:17">
+      <c r="B61" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7798,11 +7945,371 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
+    <col min="7" max="10" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="20">
+      <c r="B2" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="92" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="92"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="2:10" s="68" customFormat="1" ht="60">
+      <c r="B8" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="98">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="D9" s="45">
+        <v>14.08</v>
+      </c>
+      <c r="E9" s="64">
+        <v>495</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="93">
+        <f>C9*D9</f>
+        <v>14.019456</v>
+      </c>
+      <c r="H9" s="103"/>
+      <c r="I9" s="93">
+        <f>E9/D9</f>
+        <v>35.15625</v>
+      </c>
+      <c r="J9" s="93">
+        <f>I9/I$10</f>
+        <v>0.64064351303317546</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="98">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="D10" s="45">
+        <v>7.69</v>
+      </c>
+      <c r="E10" s="64">
+        <v>422</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="93">
+        <f t="shared" ref="G10:G12" si="0">C10*D10</f>
+        <v>6.1566140000000003</v>
+      </c>
+      <c r="H10" s="103">
+        <f>G10/$G$9</f>
+        <v>0.43914785281254853</v>
+      </c>
+      <c r="I10" s="93">
+        <f>E10/D10</f>
+        <v>54.876462938881659</v>
+      </c>
+      <c r="J10" s="93">
+        <f>I10/I$10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="98">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="D11" s="45">
+        <v>7.48</v>
+      </c>
+      <c r="E11" s="64">
+        <v>138</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="93">
+        <f t="shared" si="0"/>
+        <v>5.2300160000000009</v>
+      </c>
+      <c r="H11" s="103">
+        <f t="shared" ref="H11:H12" si="1">G11/$G$9</f>
+        <v>0.37305413277091498</v>
+      </c>
+      <c r="I11" s="93">
+        <f>E11/D11</f>
+        <v>18.449197860962567</v>
+      </c>
+      <c r="J11" s="93">
+        <f>I11/I$10</f>
+        <v>0.33619509846161649</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="99">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="D12" s="94">
+        <v>7.41</v>
+      </c>
+      <c r="E12" s="95">
+        <v>174</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="96">
+        <f t="shared" si="0"/>
+        <v>2.6335139999999999</v>
+      </c>
+      <c r="H12" s="104">
+        <f t="shared" si="1"/>
+        <v>0.18784708907392697</v>
+      </c>
+      <c r="I12" s="96">
+        <f>E12/D12</f>
+        <v>23.481781376518217</v>
+      </c>
+      <c r="J12" s="96">
+        <f>I12/I$10</f>
+        <v>0.42790260375693157</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17">
+        <v>0.05</v>
+      </c>
+      <c r="D17">
+        <f>(1/C17)/(1/C$17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18">
+        <v>0.25</v>
+      </c>
+      <c r="D18">
+        <f>(1/C18)/(1/C$17)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="52">
+        <f>(1/C19)/(1/C$17)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="107"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="105">
+        <f>(C10*D10)/($C$9*$D$9)+(C12*D12)/($C$9*$D$9)</f>
+        <v>0.62699494188647553</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="105">
+        <f>(C11*D11)/($C$9*$D$9)</f>
+        <v>0.37305413277091498</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="30">
+      <c r="B27" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="42">
+        <f>(C24*D17)+(C25*D18)+(C26*D19)</f>
+        <v>0.70160576844065847</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="108"/>
+      <c r="C28" s="51"/>
+    </row>
+    <row r="30" spans="2:10" ht="30" customHeight="1">
+      <c r="B30" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B30:J30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -7812,7 +8319,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="20">
       <c r="B2" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="20">
@@ -7820,7 +8327,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -7828,7 +8335,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -7924,7 +8431,7 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -7932,7 +8439,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -7972,7 +8479,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="31" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
